--- a/WTTS_Info.xlsx
+++ b/WTTS_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Projects\WTTS-Podcast-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D314848-8A8B-48A6-A5A4-05B193AC485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77C32CF-BB0E-424D-9879-CD50630D7E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1482,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N194" sqref="N194"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK43" sqref="AK43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
